--- a/biology/Botanique/Eucalyptus_leptophylla/Eucalyptus_leptophylla.xlsx
+++ b/biology/Botanique/Eucalyptus_leptophylla/Eucalyptus_leptophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus leptophylla, en anglais March mallee, slender-leaved red mallee ou narrow-leaved red mallee[2],[3], est une espèce de mallee endémique de l'intérieur de l'Australie. Il a une écorce lisse grisâtre, des feuilles adultes linéaires à étroites lancéolées, oblongues ou courbes, des boutons floraux par groupes de sept à treize, des fleurs blanc crème et des fruits en forme de coupe, en forme de tonneau ou hémisphériques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus leptophylla, en anglais March mallee, slender-leaved red mallee ou narrow-leaved red mallee est une espèce de mallee endémique de l'intérieur de l'Australie. Il a une écorce lisse grisâtre, des feuilles adultes linéaires à étroites lancéolées, oblongues ou courbes, des boutons floraux par groupes de sept à treize, des fleurs blanc crème et des fruits en forme de coupe, en forme de tonneau ou hémisphériques.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus leptophylla est un mallee  généralement haut de 2 à 6 m. Il forme un lignotuber. Son écorce est lisse, grise, crème ou cuivrée ; elle s'épluche en courts rubans ou en longues bandes, parfois persistantes sur le bas du tronc. Les jeunes plants et la repousse des taillis ont des feuilles sessiles, oblongues à lancéolées, pour la plupart disposées en paires opposées, et longues de 15 à 60 mm pour 5 à 25 mm de large. Les feuilles adultes sont alternes, du même vert brillant des deux côtés, linéaires à lancéolées, oblongues ou courbes, longues de 30 à 90 mm et larges de 3 à 13 mm sur un pétiole de 4 à 13 mm. 
-Les fleurs sont portées à l'aisselle des feuilles par groupes de sept à treize sur un pédoncule cylindrique non ramifié de 3 à 10 mm de long ; les boutons individuels sont sur des pédicelles pouvant faire jusqu'à 4 mm de long. Les boutons matures sont ovales à fusiformes, longs de 4 à 7 mm et larges d'environ 3 mm, avec un opercule conique de 2 à 4 mm de long. La floraison a lieu principalement entre novembre et mars. Le fruit est une capsule ligneuse en forme de coupe, en forme de tonneau ou hémisphérique de 3 à 6 mm[2],[3],[4],[5].
+Les fleurs sont portées à l'aisselle des feuilles par groupes de sept à treize sur un pédoncule cylindrique non ramifié de 3 à 10 mm de long ; les boutons individuels sont sur des pédicelles pouvant faire jusqu'à 4 mm de long. Les boutons matures sont ovales à fusiformes, longs de 4 à 7 mm et larges d'environ 3 mm, avec un opercule conique de 2 à 4 mm de long. La floraison a lieu principalement entre novembre et mars. Le fruit est une capsule ligneuse en forme de coupe, en forme de tonneau ou hémisphérique de 3 à 6 mm.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus leptophylla a été formellement décrit pour la première fois en 1856 par le botaniste Friedrich Anton Wilhelm Miquel à partir d'une description non publiée par Ferdinand von Mueller d'un spécimen récolté par Hans Hermann Behr. Cette description a été publiée dans un article intitulé « Stirpes Novo-Hollandas a Ferd Mullero collectas determinavit » dans la revue Nederlandsch kruidkundig archief[6],[7].
-L' épithète spécifique leptophylla est dérivée des mots grecs leptos (λεπτός), signifiant « mince » et phyllon (φύλλον), signifiant « feuille »[8].
-Le nom Eucalyptus foecunda est souvent appliqué à cette espèce, mais E. foecunda (en) n'est présent que dans les zones côtières du sud-ouest de l'Australie-Occidentale et a une écorce plus rugueuse[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus leptophylla a été formellement décrit pour la première fois en 1856 par le botaniste Friedrich Anton Wilhelm Miquel à partir d'une description non publiée par Ferdinand von Mueller d'un spécimen récolté par Hans Hermann Behr. Cette description a été publiée dans un article intitulé « Stirpes Novo-Hollandas a Ferd Mullero collectas determinavit » dans la revue Nederlandsch kruidkundig archief,.
+L' épithète spécifique leptophylla est dérivée des mots grecs leptos (λεπτός), signifiant « mince » et phyllon (φύλλον), signifiant « feuille ».
+Le nom Eucalyptus foecunda est souvent appliqué à cette espèce, mais E. foecunda (en) n'est présent que dans les zones côtières du sud-ouest de l'Australie-Occidentale et a une écorce plus rugueuse.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus leptophylla pousse dans les basses terres boisées, les garrigues à mallee, sur du sable blanc, jaune ou rouge ou sur un limon rouge-brun sur du gravier ou du granite. On le trouve également sur les pentes, parfois autour des lacs salés, sur les plaines sableuses et près des affleurements de granite. On le trouve dans le sud du Wheatbelt et de Goldfields-Espérance en Australie-Occidentale[4], dans le sud-est de l'Australie-Méridionale, dans l'État de Victoria et en Nouvelle-Galles du Sud de Wilcannia à West Wyalong[3],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus leptophylla pousse dans les basses terres boisées, les garrigues à mallee, sur du sable blanc, jaune ou rouge ou sur un limon rouge-brun sur du gravier ou du granite. On le trouve également sur les pentes, parfois autour des lacs salés, sur les plaines sableuses et près des affleurements de granite. On le trouve dans le sud du Wheatbelt et de Goldfields-Espérance en Australie-Occidentale, dans le sud-est de l'Australie-Méridionale, dans l'État de Victoria et en Nouvelle-Galles du Sud de Wilcannia à West Wyalong,.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">E. leptophylla est commercialisé sous forme de graines ou de plants. Il pousse à un rythme modéré, de préférence en  plein soleil et dans des sols sableux et alcalins[10]. Il convient comme arbre ornemental et constitue également un bon écran ou un coupe-vent. Il attire les oiseaux pollinisateurs et résiste à la sécheresse[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">E. leptophylla est commercialisé sous forme de graines ou de plants. Il pousse à un rythme modéré, de préférence en  plein soleil et dans des sols sableux et alcalins. Il convient comme arbre ornemental et constitue également un bon écran ou un coupe-vent. Il attire les oiseaux pollinisateurs et résiste à la sécheresse.
 </t>
         </is>
       </c>
